--- a/data/trans_dic/P5_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de ventanas al exterior en su vivienda</t>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +617,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>97,43%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,51; 100,0</t>
+          <t>82,88; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,66; 100,0</t>
+          <t>84,04; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,48; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,82; 100,0</t>
+          <t>90,54; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,41; 100,0</t>
+          <t>93,46; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,51; 100,0</t>
+          <t>90,91; 100,0</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,5%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>90,96%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,29; 98,85</t>
+          <t>89,38; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,0; 96,15</t>
+          <t>47,61; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,88; 99,4</t>
+          <t>94,6; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,96; 97,29</t>
+          <t>69,85; 100,0</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,57; 100,0</t>
+          <t>88,98; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,74; 100,0</t>
+          <t>89,01; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,68; 98,71</t>
+          <t>90,3; 99,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,92; 98,24</t>
+          <t>89,28; 98,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,53; 98,88</t>
+          <t>92,48; 98,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>94,27; 98,6</t>
+          <t>91,19; 98,04</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,71%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,85; 98,52</t>
+          <t>91,52; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,23; 98,54</t>
+          <t>91,21; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,95; 99,45</t>
+          <t>91,38; 99,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,99; 99,45</t>
+          <t>91,05; 99,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,21; 98,41</t>
+          <t>93,6; 98,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,45; 98,48</t>
+          <t>93,38; 98,82</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>99,04%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>94,65; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,4; 99,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,19; 99,02</t>
+          <t>89,78; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,0; 98,07</t>
+          <t>88,59; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,07; 98,71</t>
+          <t>95,75; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,43; 98,2</t>
+          <t>95,26; 100,0</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,9%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,68; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,63; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,49; 100,0</t>
+          <t>89,85; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,23; 100,0</t>
+          <t>89,97; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,3; 99,49</t>
+          <t>94,57; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,13; 99,46</t>
+          <t>94,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>97,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,68; 98,46</t>
+          <t>96,3; 99,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>90,1; 97,52</t>
+          <t>84,49; 98,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,67; 98,79</t>
+          <t>95,99; 98,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,32</t>
+          <t>95,27; 98,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,83; 98,39</t>
+          <t>96,72; 98,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,29; 97,62</t>
+          <t>90,75; 97,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103860</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>117565</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>130969</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>201040</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>234828</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71372; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89941; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121322; 134002</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>190366; 203678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>219114; 241026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134244</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>138553</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>133307</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>165106</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>267550</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>303658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122299; 136829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>80331; 168742</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>255555; 270135</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>233198; 333847</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>134826</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>156363</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>207044</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>251268</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>341870</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>407631</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>124335; 139726</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>144250; 162055</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>194513; 213279</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>235758; 259269</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>328436; 349848</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>388567; 417781</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>159516</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>181959</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>184005</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>209794</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>343521</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>391753</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>149615; 163480</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>170274; 186693</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>174794; 189468</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198833; 216248</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>332053; 349367</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>378258; 400272</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>138892</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>157422</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>101396</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>113565</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>240288</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>270987</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92901; 103481</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102946; 116201</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>232082; 242373</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>260640; 273623</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90237</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>109317</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>104860</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>134875</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>195097</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>244191</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>96155; 107022</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>123800; 137602</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>186539; 197259</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>233479; 246918</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>694.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>691.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>741189</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>847473</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>848178</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1005575</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1589367</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1853049</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>727316; 750175</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>753013; 877877</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>833237; 858185</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>986336; 1020339</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1570102; 1602541</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1748475; 1886466</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>